--- a/blog.xlsx
+++ b/blog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>博客数据库</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>类别</t>
+  </si>
+  <si>
+    <t>文章类别表（rain_author）</t>
   </si>
 </sst>
 </file>
@@ -197,8 +200,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -225,6 +228,121 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,38 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,91 +369,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,90 +379,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,96 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,21 +570,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,25 +592,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +638,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,16 +690,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,129 +708,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1168,44 +1165,44 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" ht="22.5" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -1322,23 +1319,23 @@
       </c>
     </row>
     <row r="10" ht="22.5" spans="1:15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1568,23 +1565,23 @@
       </c>
     </row>
     <row r="25" ht="22.5" spans="1:15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
@@ -1646,12 +1643,89 @@
         <v>57</v>
       </c>
     </row>
+    <row r="30" ht="22.5" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A30:O30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/blog.xlsx
+++ b/blog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>博客数据库</t>
   </si>
@@ -106,91 +106,97 @@
     <t>文章标题</t>
   </si>
   <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>文章作者id</t>
+  </si>
+  <si>
+    <t>cate_id</t>
+  </si>
+  <si>
+    <t>int（10）</t>
+  </si>
+  <si>
+    <t>文章类别id</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>1：上架；0：下架</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>点击率</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>文章内容</t>
+  </si>
+  <si>
+    <t>add_time</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>is_top</t>
+  </si>
+  <si>
+    <t>置顶（1：置顶；0:正常）</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>文章图片</t>
+  </si>
+  <si>
+    <t>is_delete</t>
+  </si>
+  <si>
+    <t>1：未删除；0：删除</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>文章类别表（rain_category）</t>
+  </si>
+  <si>
+    <t>类别标识</t>
+  </si>
+  <si>
+    <t>cate_name</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>文章作者表（rain_author）</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
     <t>文章作者</t>
-  </si>
-  <si>
-    <t>cate_id</t>
-  </si>
-  <si>
-    <t>int（10）</t>
-  </si>
-  <si>
-    <t>文章类别id</t>
-  </si>
-  <si>
-    <t>is_show</t>
-  </si>
-  <si>
-    <t>1：上架；0：下架</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>点击率</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>文章内容</t>
-  </si>
-  <si>
-    <t>add_time</t>
-  </si>
-  <si>
-    <t>int(11)</t>
-  </si>
-  <si>
-    <t>添加时间</t>
-  </si>
-  <si>
-    <t>is_top</t>
-  </si>
-  <si>
-    <t>置顶（1：置顶；0:正常）</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>文章图片</t>
-  </si>
-  <si>
-    <t>is_delete</t>
-  </si>
-  <si>
-    <t>1：未删除；0：删除</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>关键字</t>
-  </si>
-  <si>
-    <t>文章类别表（rain_category）</t>
-  </si>
-  <si>
-    <t>类别标识</t>
-  </si>
-  <si>
-    <t>cate_name</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>文章类别表（rain_author）</t>
   </si>
 </sst>
 </file>
@@ -199,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -226,10 +232,124 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,72 +361,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,58 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -379,6 +385,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,19 +511,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,145 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,21 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,6 +604,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -629,17 +635,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -647,17 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +665,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A30" sqref="A30:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1405,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1710,13 +1716,27 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/blog.xlsx
+++ b/blog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>博客数据库</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>文章作者</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>标签</t>
   </si>
 </sst>
 </file>
@@ -204,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -229,6 +235,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +261,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -248,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -263,6 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -271,7 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +314,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -307,25 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,44 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -385,187 +391,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +582,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,21 +625,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -635,6 +641,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -642,17 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:O30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1739,13 +1745,104 @@
         <v>25</v>
       </c>
     </row>
+    <row r="36" ht="22.5" spans="1:15">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="A25:O25"/>
     <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A36:O36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
